--- a/thc_performance.xlsx
+++ b/thc_performance.xlsx
@@ -434,35 +434,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>productid</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_quantity_ordered</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>total_revenue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>thca_percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>total_cbd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cbga</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>total_cbg</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>delta_nine_thc</t>
+        </is>
       </c>
     </row>
     <row r="2">
